--- a/biology/Médecine/1688_en_santé_et_médecine/1688_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1688_en_santé_et_médecine/1688_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1688_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1688_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1688 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1688_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1688_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1688_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1688_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,11 +551,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Béryl Bleu, traité de médecine traditionnelle tibétaine écrit en 1687–1688 par Sangyé Gyatso (1653-1705)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Béryl Bleu, traité de médecine traditionnelle tibétaine écrit en 1687–1688 par Sangyé Gyatso (1653-1705).
 Quæstionum philosophicarum circa rerum naturalium examen ratione et experientia firmatum, de Caspar Bartholin le Jeune (1655-1738).
-Doron medicum or A supplement to the new London dispensatory in III books, de William Salmon (1644-1713)[2].</t>
+Doron medicum or A supplement to the new London dispensatory in III books, de William Salmon (1644-1713).</t>
         </is>
       </c>
     </row>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1688_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1688_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,11 +585,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9 juillet : Niccolò Gualtieri (mort en 1744), médecin et malacologiste toscan[3].
-22 août : Heinrich Bernhard Rupp (mort en 1719), médecin et botaniste allemand[4].
-19 octobre : William Cheselden (mort en 1752), chirurgien anglais[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9 juillet : Niccolò Gualtieri (mort en 1744), médecin et malacologiste toscan.
+22 août : Heinrich Bernhard Rupp (mort en 1719), médecin et botaniste allemand.
+19 octobre : William Cheselden (mort en 1752), chirurgien anglais.</t>
         </is>
       </c>
     </row>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1688_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1688_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,9 +619,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9 octobre : Claude Perrault (né en 1613), médecin et architecte français[6].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>9 octobre : Claude Perrault (né en 1613), médecin et architecte français.</t>
         </is>
       </c>
     </row>
